--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2484426666666667</v>
+        <v>0.047456</v>
       </c>
       <c r="H2">
-        <v>0.745328</v>
+        <v>0.142368</v>
       </c>
       <c r="I2">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="J2">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.498163333333333</v>
+        <v>0.655792</v>
       </c>
       <c r="N2">
-        <v>4.49449</v>
+        <v>1.967376</v>
       </c>
       <c r="O2">
-        <v>0.02101839619520399</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="P2">
-        <v>0.021018396195204</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="Q2">
-        <v>0.3722076936355556</v>
+        <v>0.031121265152</v>
       </c>
       <c r="R2">
-        <v>3.34986924272</v>
+        <v>0.280091386368</v>
       </c>
       <c r="S2">
-        <v>0.002935016773710713</v>
+        <v>0.0004163599612270588</v>
       </c>
       <c r="T2">
-        <v>0.002935016773710713</v>
+        <v>0.0004163599612270587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2484426666666667</v>
+        <v>0.047456</v>
       </c>
       <c r="H3">
-        <v>0.745328</v>
+        <v>0.142368</v>
       </c>
       <c r="I3">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="J3">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.897668</v>
       </c>
       <c r="O3">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="P3">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="Q3">
-        <v>6.947920121678222</v>
+        <v>1.327149244202667</v>
       </c>
       <c r="R3">
-        <v>62.531281095104</v>
+        <v>11.944343197824</v>
       </c>
       <c r="S3">
-        <v>0.05478732021991651</v>
+        <v>0.01775544166215337</v>
       </c>
       <c r="T3">
-        <v>0.05478732021991651</v>
+        <v>0.01775544166215336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2484426666666667</v>
+        <v>0.047456</v>
       </c>
       <c r="H4">
-        <v>0.745328</v>
+        <v>0.142368</v>
       </c>
       <c r="I4">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="J4">
-        <v>0.1396403772415532</v>
+        <v>0.03340144944197188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.81461766666666</v>
+        <v>23.987612</v>
       </c>
       <c r="N4">
-        <v>125.443853</v>
+        <v>71.962836</v>
       </c>
       <c r="O4">
-        <v>0.5866357701556637</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="P4">
-        <v>0.5866357701556638</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="Q4">
-        <v>10.38853511875378</v>
+        <v>1.138356115072</v>
       </c>
       <c r="R4">
-        <v>93.49681606878399</v>
+        <v>10.245205035648</v>
       </c>
       <c r="S4">
-        <v>0.081918040247926</v>
+        <v>0.01522964781859145</v>
       </c>
       <c r="T4">
-        <v>0.08191804024792601</v>
+        <v>0.01522964781859145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.165916</v>
       </c>
       <c r="I5">
-        <v>0.5931478551122046</v>
+        <v>0.7427665150281654</v>
       </c>
       <c r="J5">
-        <v>0.5931478551122047</v>
+        <v>0.7427665150281653</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.498163333333333</v>
+        <v>0.655792</v>
       </c>
       <c r="N5">
-        <v>4.49449</v>
+        <v>1.967376</v>
       </c>
       <c r="O5">
-        <v>0.02101839619520399</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="P5">
-        <v>0.021018396195204</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="Q5">
-        <v>1.581019755871111</v>
+        <v>0.6920607951573333</v>
       </c>
       <c r="R5">
-        <v>14.22917780284</v>
+        <v>6.228547156416</v>
       </c>
       <c r="S5">
-        <v>0.01246701662108377</v>
+        <v>0.009258826864240031</v>
       </c>
       <c r="T5">
-        <v>0.01246701662108378</v>
+        <v>0.00925882686424003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.165916</v>
       </c>
       <c r="I6">
-        <v>0.5931478551122046</v>
+        <v>0.7427665150281654</v>
       </c>
       <c r="J6">
-        <v>0.5931478551122047</v>
+        <v>0.7427665150281653</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.897668</v>
       </c>
       <c r="O6">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="P6">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="Q6">
         <v>29.51255216487644</v>
@@ -818,10 +818,10 @@
         <v>265.612969483888</v>
       </c>
       <c r="S6">
-        <v>0.2327190896911926</v>
+        <v>0.3948375817970186</v>
       </c>
       <c r="T6">
-        <v>0.2327190896911926</v>
+        <v>0.3948375817970185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.165916</v>
       </c>
       <c r="I7">
-        <v>0.5931478551122046</v>
+        <v>0.7427665150281654</v>
       </c>
       <c r="J7">
-        <v>0.5931478551122047</v>
+        <v>0.7427665150281653</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.81461766666666</v>
+        <v>23.987612</v>
       </c>
       <c r="N7">
-        <v>125.443853</v>
+        <v>71.962836</v>
       </c>
       <c r="O7">
-        <v>0.5866357701556637</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="P7">
-        <v>0.5866357701556638</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="Q7">
-        <v>44.12718903492755</v>
+        <v>25.31425487753067</v>
       </c>
       <c r="R7">
-        <v>397.144701314348</v>
+        <v>227.828293897776</v>
       </c>
       <c r="S7">
-        <v>0.3479617487999281</v>
+        <v>0.3386701063669068</v>
       </c>
       <c r="T7">
-        <v>0.3479617487999283</v>
+        <v>0.3386701063669068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4754126666666667</v>
+        <v>0.3180153333333334</v>
       </c>
       <c r="H8">
-        <v>1.426238</v>
+        <v>0.9540460000000001</v>
       </c>
       <c r="I8">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="J8">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.498163333333333</v>
+        <v>0.655792</v>
       </c>
       <c r="N8">
-        <v>4.49449</v>
+        <v>1.967376</v>
       </c>
       <c r="O8">
-        <v>0.02101839619520399</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="P8">
-        <v>0.021018396195204</v>
+        <v>0.01246532615150124</v>
       </c>
       <c r="Q8">
-        <v>0.7122458254022223</v>
+        <v>0.2085519114773334</v>
       </c>
       <c r="R8">
-        <v>6.41021242862</v>
+        <v>1.876967203296</v>
       </c>
       <c r="S8">
-        <v>0.005616362800409511</v>
+        <v>0.002790139326034155</v>
       </c>
       <c r="T8">
-        <v>0.005616362800409512</v>
+        <v>0.002790139326034154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4754126666666667</v>
+        <v>0.3180153333333334</v>
       </c>
       <c r="H9">
-        <v>1.426238</v>
+        <v>0.9540460000000001</v>
       </c>
       <c r="I9">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="J9">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>83.897668</v>
       </c>
       <c r="O9">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="P9">
-        <v>0.3923458336491322</v>
+        <v>0.5315769812025607</v>
       </c>
       <c r="Q9">
-        <v>13.29533802366489</v>
+        <v>8.893581618303113</v>
       </c>
       <c r="R9">
-        <v>119.658042212984</v>
+        <v>80.04223456472801</v>
       </c>
       <c r="S9">
-        <v>0.1048394237380231</v>
+        <v>0.1189839577433888</v>
       </c>
       <c r="T9">
-        <v>0.1048394237380231</v>
+        <v>0.1189839577433888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4754126666666667</v>
+        <v>0.3180153333333334</v>
       </c>
       <c r="H10">
-        <v>1.426238</v>
+        <v>0.9540460000000001</v>
       </c>
       <c r="I10">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="J10">
-        <v>0.2672117676462422</v>
+        <v>0.2238320355298628</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.81461766666666</v>
+        <v>23.987612</v>
       </c>
       <c r="N10">
-        <v>125.443853</v>
+        <v>71.962836</v>
       </c>
       <c r="O10">
-        <v>0.5866357701556637</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="P10">
-        <v>0.5866357701556638</v>
+        <v>0.4559576926459381</v>
       </c>
       <c r="Q10">
-        <v>19.87919889055711</v>
+        <v>7.628428426050667</v>
       </c>
       <c r="R10">
-        <v>178.912790015014</v>
+        <v>68.65585583445601</v>
       </c>
       <c r="S10">
-        <v>0.1567559811078096</v>
+        <v>0.1020579384604399</v>
       </c>
       <c r="T10">
-        <v>0.1567559811078096</v>
+        <v>0.1020579384604399</v>
       </c>
     </row>
   </sheetData>
